--- a/app/data/static/samples/inputs/by_department/adygea/План по варкам адыгейский 1.xlsx
+++ b/app/data/static/samples/inputs/by_department/adygea/План по варкам адыгейский 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marklidenberg/Yandex.Disk.localized/master/code/git/2020.10-umalat/umalat/app/data/static/samples/inputs/by_department/adygea/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98F513D-1B19-FB45-A39F-0F211C59C8B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A66ED61-7B2E-2640-BC3D-F60E153E69A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="Water_SKU">SKU!$A$1:$A$100</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -2247,7 +2247,151 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="51">
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65C295"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65C295"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF65C295"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE0EFD4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFED1C24"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF000000"/>
@@ -44631,7 +44775,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7:E8"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -44720,7 +44864,7 @@
         <v>195</v>
       </c>
       <c r="E3" s="21">
-        <v>65</v>
+        <v>3250</v>
       </c>
       <c r="F3" s="21">
         <v>50</v>
@@ -44731,11 +44875,11 @@
       </c>
       <c r="H3" s="24">
         <f>IF(D3="", "", E3 * IF(F3="",1,F3))</f>
-        <v>3250</v>
+        <v>162500</v>
       </c>
       <c r="J3" s="11">
         <f t="shared" ref="J3:J34" ca="1" si="1">IF(I3 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E3 * F3)</f>
-        <v>3250</v>
+        <v>162500</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:K34" ca="1" si="2">IF(I3 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J3)))), 0)</f>
@@ -44771,7 +44915,7 @@
       </c>
       <c r="G4" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>-159250</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="25" t="s">
@@ -44783,7 +44927,7 @@
       </c>
       <c r="K4" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
       <c r="L4" s="1">
         <f t="shared" si="3"/>
@@ -44791,7 +44935,7 @@
       </c>
       <c r="M4" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -44822,7 +44966,7 @@
       </c>
       <c r="M5" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -44853,7 +44997,7 @@
       </c>
       <c r="M6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -44884,7 +45028,7 @@
       </c>
       <c r="M7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -44915,7 +45059,7 @@
       </c>
       <c r="M8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -44946,7 +45090,7 @@
       </c>
       <c r="M9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -44977,7 +45121,7 @@
       </c>
       <c r="M10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45008,7 +45152,7 @@
       </c>
       <c r="M11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45039,7 +45183,7 @@
       </c>
       <c r="M12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45070,7 +45214,7 @@
       </c>
       <c r="M13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45101,7 +45245,7 @@
       </c>
       <c r="M14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45132,7 +45276,7 @@
       </c>
       <c r="M15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45163,7 +45307,7 @@
       </c>
       <c r="M16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="17" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45194,7 +45338,7 @@
       </c>
       <c r="M17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="18" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45225,7 +45369,7 @@
       </c>
       <c r="M18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="19" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45256,7 +45400,7 @@
       </c>
       <c r="M19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45287,7 +45431,7 @@
       </c>
       <c r="M20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="21" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45318,7 +45462,7 @@
       </c>
       <c r="M21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45349,7 +45493,7 @@
       </c>
       <c r="M22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="23" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45380,7 +45524,7 @@
       </c>
       <c r="M23" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="24" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45411,7 +45555,7 @@
       </c>
       <c r="M24" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45442,7 +45586,7 @@
       </c>
       <c r="M25" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45473,7 +45617,7 @@
       </c>
       <c r="M26" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="27" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45504,7 +45648,7 @@
       </c>
       <c r="M27" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45535,7 +45679,7 @@
       </c>
       <c r="M28" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="29" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45566,7 +45710,7 @@
       </c>
       <c r="M29" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="30" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45597,7 +45741,7 @@
       </c>
       <c r="M30" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="31" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45628,7 +45772,7 @@
       </c>
       <c r="M31" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="32" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45659,7 +45803,7 @@
       </c>
       <c r="M32" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="33" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45690,7 +45834,7 @@
       </c>
       <c r="M33" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="34" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45721,7 +45865,7 @@
       </c>
       <c r="M34" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="35" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45752,7 +45896,7 @@
       </c>
       <c r="M35" s="1">
         <f t="shared" ref="M35:M66" ca="1" si="9">IF(K35 = 0, INDIRECT("M" &amp; ROW() - 1), K35)</f>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="36" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45783,7 +45927,7 @@
       </c>
       <c r="M36" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="37" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45814,7 +45958,7 @@
       </c>
       <c r="M37" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="38" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45845,7 +45989,7 @@
       </c>
       <c r="M38" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="39" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45876,7 +46020,7 @@
       </c>
       <c r="M39" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="40" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45907,7 +46051,7 @@
       </c>
       <c r="M40" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="41" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45938,7 +46082,7 @@
       </c>
       <c r="M41" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="42" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -45969,7 +46113,7 @@
       </c>
       <c r="M42" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="43" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46000,7 +46144,7 @@
       </c>
       <c r="M43" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="44" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46031,7 +46175,7 @@
       </c>
       <c r="M44" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="45" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46062,7 +46206,7 @@
       </c>
       <c r="M45" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="46" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46093,7 +46237,7 @@
       </c>
       <c r="M46" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46124,7 +46268,7 @@
       </c>
       <c r="M47" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46155,7 +46299,7 @@
       </c>
       <c r="M48" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="49" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46186,7 +46330,7 @@
       </c>
       <c r="M49" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="50" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46217,7 +46361,7 @@
       </c>
       <c r="M50" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="51" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46248,7 +46392,7 @@
       </c>
       <c r="M51" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="52" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46279,7 +46423,7 @@
       </c>
       <c r="M52" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="53" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46310,7 +46454,7 @@
       </c>
       <c r="M53" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="54" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46341,7 +46485,7 @@
       </c>
       <c r="M54" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="55" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46372,7 +46516,7 @@
       </c>
       <c r="M55" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="56" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46403,7 +46547,7 @@
       </c>
       <c r="M56" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="57" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46434,7 +46578,7 @@
       </c>
       <c r="M57" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="58" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46465,7 +46609,7 @@
       </c>
       <c r="M58" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="59" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46496,7 +46640,7 @@
       </c>
       <c r="M59" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="60" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46527,7 +46671,7 @@
       </c>
       <c r="M60" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="61" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46558,7 +46702,7 @@
       </c>
       <c r="M61" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="62" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46589,7 +46733,7 @@
       </c>
       <c r="M62" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="63" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46620,7 +46764,7 @@
       </c>
       <c r="M63" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="64" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46651,7 +46795,7 @@
       </c>
       <c r="M64" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="65" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46682,7 +46826,7 @@
       </c>
       <c r="M65" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="66" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46713,7 +46857,7 @@
       </c>
       <c r="M66" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="67" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46744,7 +46888,7 @@
       </c>
       <c r="M67" s="1">
         <f t="shared" ref="M67:M98" ca="1" si="14">IF(K67 = 0, INDIRECT("M" &amp; ROW() - 1), K67)</f>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="68" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46775,7 +46919,7 @@
       </c>
       <c r="M68" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="69" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46806,7 +46950,7 @@
       </c>
       <c r="M69" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="70" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46837,7 +46981,7 @@
       </c>
       <c r="M70" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="71" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46868,7 +47012,7 @@
       </c>
       <c r="M71" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="72" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46899,7 +47043,7 @@
       </c>
       <c r="M72" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="73" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46930,7 +47074,7 @@
       </c>
       <c r="M73" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="74" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46961,7 +47105,7 @@
       </c>
       <c r="M74" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="75" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -46992,7 +47136,7 @@
       </c>
       <c r="M75" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="76" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47023,7 +47167,7 @@
       </c>
       <c r="M76" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="77" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47054,7 +47198,7 @@
       </c>
       <c r="M77" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="78" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47085,7 +47229,7 @@
       </c>
       <c r="M78" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="79" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47116,7 +47260,7 @@
       </c>
       <c r="M79" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="80" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47147,7 +47291,7 @@
       </c>
       <c r="M80" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="81" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47178,7 +47322,7 @@
       </c>
       <c r="M81" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="82" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47209,7 +47353,7 @@
       </c>
       <c r="M82" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="83" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47240,7 +47384,7 @@
       </c>
       <c r="M83" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="84" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47271,7 +47415,7 @@
       </c>
       <c r="M84" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="85" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47302,7 +47446,7 @@
       </c>
       <c r="M85" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="86" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47333,7 +47477,7 @@
       </c>
       <c r="M86" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="87" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47364,7 +47508,7 @@
       </c>
       <c r="M87" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="88" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47395,7 +47539,7 @@
       </c>
       <c r="M88" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="89" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47426,7 +47570,7 @@
       </c>
       <c r="M89" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="90" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47457,7 +47601,7 @@
       </c>
       <c r="M90" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="91" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47488,7 +47632,7 @@
       </c>
       <c r="M91" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="92" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47519,7 +47663,7 @@
       </c>
       <c r="M92" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="93" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47550,7 +47694,7 @@
       </c>
       <c r="M93" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="94" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47581,7 +47725,7 @@
       </c>
       <c r="M94" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="95" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47612,7 +47756,7 @@
       </c>
       <c r="M95" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="96" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47643,7 +47787,7 @@
       </c>
       <c r="M96" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="97" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47674,7 +47818,7 @@
       </c>
       <c r="M97" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="98" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47705,7 +47849,7 @@
       </c>
       <c r="M98" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="99" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47736,7 +47880,7 @@
       </c>
       <c r="M99" s="1">
         <f t="shared" ref="M99:M123" ca="1" si="19">IF(K99 = 0, INDIRECT("M" &amp; ROW() - 1), K99)</f>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="100" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47767,7 +47911,7 @@
       </c>
       <c r="M100" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="101" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47798,7 +47942,7 @@
       </c>
       <c r="M101" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="102" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47829,7 +47973,7 @@
       </c>
       <c r="M102" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="103" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47860,7 +48004,7 @@
       </c>
       <c r="M103" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="104" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47891,7 +48035,7 @@
       </c>
       <c r="M104" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="105" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47922,7 +48066,7 @@
       </c>
       <c r="M105" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="106" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47953,7 +48097,7 @@
       </c>
       <c r="M106" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="107" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47984,7 +48128,7 @@
       </c>
       <c r="M107" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="108" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48015,7 +48159,7 @@
       </c>
       <c r="M108" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="109" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48046,7 +48190,7 @@
       </c>
       <c r="M109" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="110" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48077,7 +48221,7 @@
       </c>
       <c r="M110" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="111" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48108,7 +48252,7 @@
       </c>
       <c r="M111" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="112" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48139,7 +48283,7 @@
       </c>
       <c r="M112" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="113" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48170,7 +48314,7 @@
       </c>
       <c r="M113" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="114" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48201,7 +48345,7 @@
       </c>
       <c r="M114" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="115" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48232,7 +48376,7 @@
       </c>
       <c r="M115" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="116" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48263,7 +48407,7 @@
       </c>
       <c r="M116" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="117" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48294,7 +48438,7 @@
       </c>
       <c r="M117" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="118" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48325,7 +48469,7 @@
       </c>
       <c r="M118" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="119" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48356,7 +48500,7 @@
       </c>
       <c r="M119" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="120" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48387,7 +48531,7 @@
       </c>
       <c r="M120" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="121" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48418,7 +48562,7 @@
       </c>
       <c r="M121" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="122" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48449,7 +48593,7 @@
       </c>
       <c r="M122" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="123" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48477,7 +48621,7 @@
       </c>
       <c r="M123" s="1">
         <f t="shared" ca="1" si="19"/>
-        <v>0</v>
+        <v>159250</v>
       </c>
     </row>
     <row r="124" spans="2:13" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48674,129 +48818,129 @@
     <mergeCell ref="E1:E2"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B123">
-    <cfRule type="expression" dxfId="38" priority="2">
+    <cfRule type="expression" dxfId="50" priority="2">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="3">
+    <cfRule type="expression" dxfId="49" priority="3">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G124:H1048576">
-    <cfRule type="expression" dxfId="36" priority="4">
+    <cfRule type="expression" dxfId="48" priority="4">
       <formula>IF(H124="",0, G124)  &lt; - 0.05* IF(H124="",0,H124)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="5">
+    <cfRule type="expression" dxfId="47" priority="5">
       <formula>AND(IF(H124="",0, G124)  &gt;= - 0.05* IF(H124="",0,H124), IF(H124="",0, G124) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="6">
+    <cfRule type="expression" dxfId="46" priority="6">
       <formula>AND(IF(H124="",0, G124)  &lt;= 0.05* IF(H124="",0,H124), IF(H124="",0, G124) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="7">
+    <cfRule type="expression" dxfId="45" priority="7">
       <formula>IF(H124="",0,G124)  &gt; 0.05* IF(H124="",0,H124)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:B122">
-    <cfRule type="expression" dxfId="32" priority="8">
+    <cfRule type="expression" dxfId="44" priority="8">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="9">
+    <cfRule type="expression" dxfId="43" priority="9">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="10">
+    <cfRule type="expression" dxfId="42" priority="10">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="11">
+    <cfRule type="expression" dxfId="41" priority="11">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="17">
+    <cfRule type="expression" dxfId="40" priority="17">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="18">
+    <cfRule type="expression" dxfId="39" priority="18">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="19">
+    <cfRule type="expression" dxfId="38" priority="19">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="20">
+    <cfRule type="expression" dxfId="37" priority="20">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="21">
+    <cfRule type="expression" dxfId="36" priority="21">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="22">
+    <cfRule type="expression" dxfId="35" priority="22">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="23">
+    <cfRule type="expression" dxfId="34" priority="23">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="24">
+    <cfRule type="expression" dxfId="33" priority="24">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="25">
+    <cfRule type="expression" dxfId="32" priority="25">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="26">
+    <cfRule type="expression" dxfId="31" priority="26">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="27">
+    <cfRule type="expression" dxfId="30" priority="27">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="17" priority="28">
+    <cfRule type="expression" dxfId="29" priority="28">
       <formula>$B3&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H2">
-    <cfRule type="expression" dxfId="16" priority="12">
+    <cfRule type="expression" dxfId="28" priority="12">
       <formula>SUMIF(G3:G123,"&gt;0")-SUMIF(G3:G123,"&lt;0") &gt; 1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="13">
+    <cfRule type="expression" dxfId="27" priority="13">
       <formula>IF(H2="",0, G2)  &lt; - 0.05* IF(H2="",0,H2)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="26" priority="14">
       <formula>AND(IF(H2="",0, G2)  &gt;= - 0.05* IF(H2="",0,H2), IF(H2="",0, G2) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="25" priority="15">
       <formula>AND(IF(H2="",0, G2)  &lt;= 0.05* IF(H2="",0,H2), IF(H2="",0, G2) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="24" priority="16">
       <formula>IF(H2="",0,G2)  &gt; 0.05* IF(H2="",0,H2)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H123">
-    <cfRule type="expression" dxfId="11" priority="29">
+    <cfRule type="expression" dxfId="23" priority="29">
       <formula>IF(H3="",0, G3)  &lt; - 0.05* IF(H3="",0,H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="30">
+    <cfRule type="expression" dxfId="22" priority="30">
       <formula>AND(IF(H3="",0, G3)  &gt;= - 0.05* IF(H3="",0,H3), IF(H3="",0, G3) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="31">
+    <cfRule type="expression" dxfId="21" priority="31">
       <formula>AND(IF(H3="",0, G3)  &lt;= 0.05* IF(H3="",0,H3), IF(H3="",0, G3) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="32">
+    <cfRule type="expression" dxfId="20" priority="32">
       <formula>IF(H3="",0,G3)  &gt; 0.05* IF(H3="",0,H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="33">
+    <cfRule type="expression" dxfId="19" priority="33">
       <formula>IF(H3="",0, G3)  &lt; - 0.05* IF(H3="",0,H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="34">
+    <cfRule type="expression" dxfId="18" priority="34">
       <formula>AND(IF(H3="",0, G3)  &gt;= - 0.05* IF(H3="",0,H3), IF(H3="",0, G3) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="35">
+    <cfRule type="expression" dxfId="17" priority="35">
       <formula>AND(IF(H3="",0, G3)  &lt;= 0.05* IF(H3="",0,H3), IF(H3="",0, G3) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="36">
+    <cfRule type="expression" dxfId="16" priority="36">
       <formula>IF(H3="",0,G3)  &gt; 0.05* IF(H3="",0,H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="37">
+    <cfRule type="expression" dxfId="15" priority="37">
       <formula>IF(H3="",0, G3)  &lt; - 0.05* IF(H3="",0,H3)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="38">
+    <cfRule type="expression" dxfId="14" priority="38">
       <formula>AND(IF(H3="",0, G3)  &gt;= - 0.05* IF(H3="",0,H3), IF(H3="",0, G3) &lt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="39">
+    <cfRule type="expression" dxfId="13" priority="39">
       <formula>AND(IF(H3="",0, G3)  &lt;= 0.05* IF(H3="",0,H3), IF(H3="",0, G3) &gt; 0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="40">
+    <cfRule type="expression" dxfId="12" priority="40">
       <formula>IF(H3="",0,G3)  &gt; 0.05* IF(H3="",0,H3)</formula>
     </cfRule>
   </conditionalFormatting>
